--- a/data/trans_dic/P16A06-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A06-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,42%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,81; 5,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>1,72; 3,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>4,43; 7,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>9,56; 14,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>5,74; 8,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>8,56; 11,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>12,81; 17,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>20,48; 25,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>4,66; 6,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>5,89; 8,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>9,58; 12,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>16,68; 20,44</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,74%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,73; 1,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,15; 2,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,17; 2,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,22; 4,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,76; 3,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>3,35; 5,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,92; 5,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>6,08; 8,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,37; 2,38</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,39; 3,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>2,68; 3,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>5,03; 6,45</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,89%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,37; 2,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,65; 4,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,88; 3,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,63; 5,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,85; 3,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>1,3; 4,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,97; 5,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,32; 7,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,78; 2,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>1,31; 3,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,78; 3,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>3,86; 6,01</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,57; 2,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,52; 2,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,08; 3,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,49; 6,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,51; 4,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,46; 7,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,59; 8,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>9,42; 11,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,71; 3,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,68; 4,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,65; 5,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>7,36; 8,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A06-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>18,07%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,56; 14,43</t>
+          <t>9,38; 14,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,48; 25,27</t>
+          <t>20,31; 24,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,68; 20,44</t>
+          <t>16,42; 19,95</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>5,2%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 4,98</t>
+          <t>2,52; 4,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,08; 8,55</t>
+          <t>4,58; 8,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,03; 6,45</t>
+          <t>4,15; 6,06</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>4,84%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,64</t>
+          <t>2,64; 5,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,36</t>
+          <t>4,26; 7,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 6,01</t>
+          <t>3,86; 5,98</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>7,42%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 6,04</t>
+          <t>3,68; 5,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,42; 11,44</t>
+          <t>8,12; 10,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,36; 8,68</t>
+          <t>6,47; 8,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A06-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,07</t>
+          <t>2,73; 5,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,93</t>
+          <t>1,82; 4,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,43; 7,91</t>
+          <t>4,19; 7,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,38; 14,27</t>
+          <t>9,46; 14,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 8,67</t>
+          <t>5,83; 8,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,56; 11,95</t>
+          <t>8,62; 12,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,81; 17,62</t>
+          <t>12,93; 17,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,31; 24,82</t>
+          <t>20,04; 25,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 6,55</t>
+          <t>4,65; 6,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,89; 8,1</t>
+          <t>5,84; 8,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,58; 12,79</t>
+          <t>9,66; 12,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,42; 19,95</t>
+          <t>16,44; 19,96</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,85</t>
+          <t>0,73; 1,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,38</t>
+          <t>1,2; 2,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,3</t>
+          <t>1,15; 2,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 4,52</t>
+          <t>2,49; 4,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,48</t>
+          <t>1,7; 3,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,38</t>
+          <t>3,39; 5,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 5,92</t>
+          <t>3,87; 5,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,0</t>
+          <t>4,9; 8,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,38</t>
+          <t>1,35; 2,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 3,52</t>
+          <t>2,39; 3,55</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 3,95</t>
+          <t>2,7; 3,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,15; 6,06</t>
+          <t>4,26; 6,08</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,09</t>
+          <t>0,36; 2,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,07</t>
+          <t>0,67; 3,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,64</t>
+          <t>0,89; 3,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,72</t>
+          <t>2,7; 5,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,75</t>
+          <t>0,82; 3,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,92</t>
+          <t>1,4; 5,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 5,32</t>
+          <t>1,92; 5,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 7,2</t>
+          <t>4,3; 7,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,26</t>
+          <t>0,76; 2,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,63</t>
+          <t>1,37; 4,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,88</t>
+          <t>1,77; 3,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 5,98</t>
+          <t>3,85; 5,97</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,55</t>
+          <t>1,54; 2,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,58</t>
+          <t>1,54; 2,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,2</t>
+          <t>2,13; 3,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,68; 5,7</t>
+          <t>3,66; 5,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 4,9</t>
+          <t>3,46; 4,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,46; 7,16</t>
+          <t>5,45; 7,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,59; 8,54</t>
+          <t>6,68; 8,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,12; 10,94</t>
+          <t>8,25; 10,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 3,52</t>
+          <t>2,71; 3,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,68; 4,69</t>
+          <t>3,67; 4,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,65; 5,71</t>
+          <t>4,59; 5,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,47; 8,22</t>
+          <t>6,47; 8,15</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>38862</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25770</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>43901</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>60131</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>92751</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>134996</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>150490</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>168449</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>131613</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>160766</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>194391</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>228579</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>28122; 52745</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17674; 39391</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>31606; 57888</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>48566; 73279</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>76669; 113985</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>114905; 160952</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>128631; 174095</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>150606; 190030</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>109072; 151784</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>134457; 185868</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>169036; 221797</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>208011; 252532</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>20418</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>33993</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>34760</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>81622</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>39241</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>74526</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>96179</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>153600</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>59658</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>108519</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>130939</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>235222</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12351; 31458</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>23447; 49034</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>23813; 47835</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>56972; 105267</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>27057; 51848</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>59305; 94799</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>76954; 118269</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>109572; 182374</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>44274; 77003</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>88769; 131653</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>109612; 154018</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>192705; 275233</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5644</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9229</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10310</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>26030</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8680</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12328</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>18833</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>37280</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>14324</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>21557</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>29143</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>63310</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1970; 12361</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3207; 18563</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4863; 19715</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17454; 37653</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3909; 16862</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6402; 23043</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10548; 28595</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28362; 47618</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7845; 22921</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12827; 37874</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>19359; 42329</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>50339; 78036</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>64924</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>68991</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>88971</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>167783</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>140672</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>221850</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>265502</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>359329</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>205596</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>290842</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>354474</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>527112</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>50520; 80965</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>52435; 89564</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>71975; 108105</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>126313; 195545</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>116772; 164191</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>193116; 252950</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>236084; 301009</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>301155; 399897</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>180172; 235616</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>254893; 326812</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>317135; 391131</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>459204; 578687</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>